--- a/RJ_Reconstrucao_Moluscos_2024_06_06.xlsx
+++ b/RJ_Reconstrucao_Moluscos_2024_06_06.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaf\Meu Drive\11. TED Reconstrucao Pesqueira\Dados\Reconstrucao ETAPA III\Rio de Janeiro\Moluscos RJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Documents\GitHub\recontrucao_da_estatistica_pesqueira_brasileira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB34428-0ADE-498B-8C9E-16DCD5BC8C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF3BC2-4F9D-4E17-8F94-D473DF369339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8CF639D8-2B04-430D-92CE-9A42D5991699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CF639D8-2B04-430D-92CE-9A42D5991699}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_limpos" sheetId="3" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Ano</t>
   </si>
@@ -102,6 +91,12 @@
   </si>
   <si>
     <t>Calamar_ind</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -266,7 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -339,6 +334,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -685,39 +683,39 @@
   <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="8.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="8.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="36" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="22" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="36" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="22" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="8.88671875" style="22"/>
-    <col min="19" max="19" width="11.109375" style="22" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" style="22" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="4"/>
+    <col min="18" max="18" width="8.85546875" style="22"/>
+    <col min="19" max="19" width="11.140625" style="22" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -785,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1950</v>
       </c>
@@ -794,7 +792,7 @@
         <v>28137</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1951</v>
       </c>
@@ -803,7 +801,7 @@
         <v>27432</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1952</v>
       </c>
@@ -812,7 +810,7 @@
         <v>26648</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1953</v>
       </c>
@@ -821,7 +819,7 @@
         <v>24552</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1954</v>
       </c>
@@ -830,7 +828,7 @@
         <v>22755</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1955</v>
       </c>
@@ -839,7 +837,7 @@
         <v>28303</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1956</v>
       </c>
@@ -850,7 +848,7 @@
         <v>24791</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1957</v>
       </c>
@@ -861,7 +859,7 @@
         <v>17764</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1958</v>
       </c>
@@ -872,7 +870,7 @@
         <v>18001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1959</v>
       </c>
@@ -883,7 +881,7 @@
         <v>23505</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1960</v>
       </c>
@@ -894,7 +892,7 @@
         <v>32473</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1961</v>
       </c>
@@ -905,7 +903,7 @@
         <v>50074</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1962</v>
       </c>
@@ -928,7 +926,7 @@
         <v>53017</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>1963</v>
       </c>
@@ -951,7 +949,7 @@
         <v>48358</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1964</v>
       </c>
@@ -974,7 +972,7 @@
         <v>49715</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1965</v>
       </c>
@@ -989,7 +987,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1966</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>1967</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>66034</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1968</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>84752</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>1969</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>92991</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>1970</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>72804</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>1971</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>111267</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1972</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>128160</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>1973</v>
       </c>
@@ -1114,7 +1112,7 @@
         <v>158652</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>1974</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>57930</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>1975</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>144596</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>1976</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>105499</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>1977</v>
       </c>
@@ -1166,7 +1164,7 @@
         <v>126205</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>1978</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>164081</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>1979</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>177185</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>1980</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>147291</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1981</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>159633</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1982</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>142787</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>1983</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>161192</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>1984</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>180564</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>1985</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>199807</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>1986</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>194255</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>1987</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>239852</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>1988</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>171098</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>1989</v>
       </c>
@@ -1506,7 +1504,7 @@
         <v>152438</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>1990</v>
       </c>
@@ -1534,7 +1532,7 @@
         <v>59668</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>1991</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>60116.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>1992</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>61048</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>1993</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>55676.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>1994</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>55676.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>1995</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>59076.5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>1996</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>70045.5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>1997</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>74444.5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>1998</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>49955</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>1999</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>49781.5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>2000</v>
       </c>
@@ -1806,8 +1804,8 @@
       <c r="M52" s="23">
         <v>584.5</v>
       </c>
-      <c r="N52" s="15">
-        <v>1.5</v>
+      <c r="N52" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="O52" s="37"/>
       <c r="P52" s="23"/>
@@ -1820,7 +1818,7 @@
         <v>60881.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>2001</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v>63462.5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>2002</v>
       </c>
@@ -1877,8 +1875,8 @@
       <c r="M54" s="23">
         <v>241.5</v>
       </c>
-      <c r="N54" s="15">
-        <v>0.5</v>
+      <c r="N54" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="O54" s="37"/>
       <c r="P54" s="23"/>
@@ -1891,7 +1889,7 @@
         <v>56698.5</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>2003</v>
       </c>
@@ -1914,8 +1912,8 @@
       <c r="M55" s="23">
         <v>237.5</v>
       </c>
-      <c r="N55" s="15">
-        <v>0.5</v>
+      <c r="N55" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="O55" s="37"/>
       <c r="P55" s="23"/>
@@ -1928,7 +1926,7 @@
         <v>52166</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>2004</v>
       </c>
@@ -1951,8 +1949,8 @@
       <c r="M56" s="23">
         <v>261</v>
       </c>
-      <c r="N56" s="15">
-        <v>0.5</v>
+      <c r="N56" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="O56" s="37"/>
       <c r="P56" s="23"/>
@@ -1965,7 +1963,7 @@
         <v>68428.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>2005</v>
       </c>
@@ -1984,8 +1982,8 @@
       <c r="M57" s="22">
         <v>269.5</v>
       </c>
-      <c r="N57" s="4">
-        <v>0.5</v>
+      <c r="N57" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="U57" s="1">
         <v>1249</v>
@@ -1994,7 +1992,7 @@
         <v>63716</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>2006</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>66939</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>2007</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>82528.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>2008</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>51432</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>2009</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>57090</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>2010</v>
       </c>
@@ -2144,7 +2142,7 @@
         <v>54113</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>2011</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>78933</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>2012</v>
       </c>
@@ -2210,7 +2208,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>2013</v>
       </c>
@@ -2242,7 +2240,7 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>2014</v>
       </c>
@@ -2274,7 +2272,7 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>2015</v>
       </c>
@@ -2310,7 +2308,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>2016</v>
       </c>
@@ -2340,7 +2338,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>2017</v>
       </c>
@@ -2392,7 +2390,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>2018</v>
       </c>
@@ -2446,7 +2444,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>2019</v>
       </c>
@@ -2496,7 +2494,7 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>2020</v>
       </c>
@@ -2542,7 +2540,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>2021</v>
       </c>
@@ -2588,7 +2586,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>2022</v>
       </c>
